--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Makerspace\arduino_sensor_dial_project_johndan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904332C6-3E82-43C3-AA73-8FCBED0D54C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FACD2A-0A62-4BF3-9F01-20BCD1E44F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{9D28C66F-306B-403E-888F-29FD233D1112}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>QTY</t>
   </si>
@@ -127,14 +127,37 @@
   </si>
   <si>
     <t>Arduino Uno</t>
+  </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> U2, "button (conductive)", in the Fritzing file is not an actual part, it's just there to represent any piece of metal.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,9 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E87B85-34B7-4F6C-B84F-33C9B255E632}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -488,7 +514,7 @@
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,7 +657,13 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>